--- a/files/datatest.xlsx
+++ b/files/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDEACD9-04C0-6248-9346-F54505AAF7EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7588CBE-B65E-8847-BC59-D21498A93BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>asunto1</t>
   </si>
   <si>
-    <t>linkparadescargar</t>
-  </si>
-  <si>
     <t>Institucion</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>asunto2</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/branmora/sg-equality-evidence-finder/master/files/datatest.csv</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -455,24 +455,24 @@
         <v>44177</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>44183</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/files/datatest.xlsx
+++ b/files/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7588CBE-B65E-8847-BC59-D21498A93BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40143DE5-BDD5-7949-BBEB-BE5CD139141B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Documento</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/branmora/sg-equality-evidence-finder/master/files/datatest.csv</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://rstudio.com"&gt;RStudio&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,7 +458,7 @@
         <v>44177</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/files/datatest.xlsx
+++ b/files/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40143DE5-BDD5-7949-BBEB-BE5CD139141B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B2C4B-68C1-FB4B-ADC5-4FB52FB16F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>asunto2</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/branmora/sg-equality-evidence-finder/master/files/datatest.csv</t>
-  </si>
-  <si>
     <t>&lt;a href="http://rstudio.com"&gt;RStudio&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://github.com/branmora/sg-equality-evidence-finder/raw/master/files/doc1.pdf"&gt;Descarga&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +458,7 @@
         <v>44177</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>44183</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/files/datatest.xlsx
+++ b/files/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8B2C4B-68C1-FB4B-ADC5-4FB52FB16F7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F4D14-E00A-C240-8726-1490ABFC6DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
   </bookViews>
@@ -60,20 +60,28 @@
     <t>asunto2</t>
   </si>
   <si>
-    <t>&lt;a href="http://rstudio.com"&gt;RStudio&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://github.com/branmora/sg-equality-evidence-finder/raw/master/files/doc1.pdf"&gt;Descarga&lt;/a&gt;</t>
+    <t>http://rstudio.com</t>
+  </si>
+  <si>
+    <t>https://github.com/branmora/sg-equality-evidence-finder/raw/master/files/doc1.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,14 +104,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,7 +430,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,7 +468,7 @@
       <c r="D2" s="1">
         <v>44177</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -474,11 +485,15 @@
       <c r="D3" s="1">
         <v>44183</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{617C77AC-DF8F-2746-989C-48BE6103D7AE}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{EBEB3D9F-12F0-C94B-80AC-D4DF0338D56B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/datatest.xlsx
+++ b/files/datatest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F4D14-E00A-C240-8726-1490ABFC6DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61148099-B21C-DB4E-964B-2693E4EB3D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
   </bookViews>
@@ -30,33 +30,18 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Recibido</t>
-  </si>
-  <si>
     <t>Descarga</t>
   </si>
   <si>
-    <t>Oficio 54</t>
-  </si>
-  <si>
     <t>Asunto</t>
   </si>
   <si>
-    <t>asunto1</t>
-  </si>
-  <si>
     <t>Institucion</t>
   </si>
   <si>
-    <t>GERESA</t>
-  </si>
-  <si>
     <t>Oficio 55</t>
   </si>
   <si>
-    <t>GORE</t>
-  </si>
-  <si>
     <t>asunto2</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>https://github.com/branmora/sg-equality-evidence-finder/raw/master/files/doc1.pdf</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Los asuntos son generalmente mas largos y podran ocupar mas espacio de lo normal, tal como este asunto que esta ocupando mucho mas espacio. Posiblemente incluso mas</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco</t>
+  </si>
+  <si>
+    <t>Presidencia del Consejo de Ministros</t>
+  </si>
+  <si>
+    <t>Carta 99-2020-154-GS2</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,50 +443,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>44177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>44183</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
